--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="424">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Re-baseline IPDC cost</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Re-baseline IPDC benefits</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Does the HMT Businesss Case cover the full life of the project?</t>
@@ -1500,7 +1500,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1583,13 +1583,15 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1597,7 +1599,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1605,7 +1607,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1613,7 +1615,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1621,13 +1623,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1635,35 +1637,35 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>40875</v>
@@ -1677,22 +1679,22 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1700,13 +1702,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1732,13 +1734,13 @@
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1818,13 +1820,13 @@
         <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1838,13 +1840,13 @@
         <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1904,7 +1906,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1921,13 +1923,13 @@
         <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1973,10 +1975,10 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2013,10 +2015,10 @@
         <v>75</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2024,10 +2026,10 @@
         <v>76</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2043,10 +2045,10 @@
         <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2054,10 +2056,10 @@
         <v>79</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2098,10 +2100,10 @@
         <v>83</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2109,10 +2111,10 @@
         <v>84</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2120,10 +2122,10 @@
         <v>85</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="425">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea of Tranquility</t>
   </si>
   <si>
     <t xml:space="preserve">IPDC approval point</t>
@@ -1500,7 +1503,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1524,148 +1527,173 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>40875</v>
@@ -1676,287 +1704,332 @@
       <c r="D16" s="3" t="n">
         <v>41852</v>
       </c>
+      <c r="E16" s="3" t="n">
+        <v>41852</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>2010</v>
@@ -1964,7 +2037,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>0.03</v>
@@ -1972,69 +2045,75 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>0</v>
@@ -2042,29 +2121,29 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>398</v>
@@ -2072,7 +2151,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1985</v>
@@ -2083,7 +2162,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2.3</v>
@@ -2094,43 +2173,46 @@
       <c r="D60" s="1" t="n">
         <v>0.38</v>
       </c>
+      <c r="E60" s="1" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>2.3</v>
@@ -2141,36 +2223,42 @@
       <c r="D64" s="1" t="n">
         <v>0.63</v>
       </c>
+      <c r="E64" s="1" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>833</v>
@@ -2181,10 +2269,13 @@
       <c r="D68" s="1" t="n">
         <v>1172</v>
       </c>
+      <c r="E68" s="1" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>3494</v>
@@ -2195,52 +2286,64 @@
       <c r="D69" s="1" t="n">
         <v>738.36</v>
       </c>
+      <c r="E69" s="1" t="n">
+        <v>738.36</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>6445.73</v>
@@ -2251,10 +2354,13 @@
       <c r="D73" s="1" t="n">
         <v>674.7</v>
       </c>
+      <c r="E73" s="1" t="n">
+        <v>674.7</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>6490.37</v>
@@ -2265,10 +2371,13 @@
       <c r="D74" s="1" t="n">
         <v>672.3</v>
       </c>
+      <c r="E74" s="1" t="n">
+        <v>672.3</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>53.05</v>
@@ -2279,10 +2388,13 @@
       <c r="D75" s="1" t="n">
         <v>99.28</v>
       </c>
+      <c r="E75" s="1" t="n">
+        <v>99.28</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>0</v>
@@ -2291,12 +2403,15 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>0</v>
@@ -2305,12 +2420,15 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>0</v>
@@ -2319,12 +2437,15 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>53.05</v>
@@ -2335,10 +2456,13 @@
       <c r="D79" s="1" t="n">
         <v>99.28</v>
       </c>
+      <c r="E79" s="1" t="n">
+        <v>99.28</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>0</v>
@@ -2347,12 +2471,15 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>55.56</v>
@@ -2363,10 +2490,13 @@
       <c r="D81" s="1" t="n">
         <v>99.24</v>
       </c>
+      <c r="E81" s="1" t="n">
+        <v>99.24</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>0</v>
@@ -2375,12 +2505,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>0</v>
@@ -2389,12 +2522,15 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>0</v>
@@ -2403,12 +2539,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" s="6" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" s="6" t="n">
         <v>55.56</v>
@@ -2417,6 +2556,9 @@
         <v>0</v>
       </c>
       <c r="D85" s="6" t="n">
+        <v>99.24</v>
+      </c>
+      <c r="E85" s="6" t="n">
         <v>99.24</v>
       </c>
       <c r="ALB85" s="1"/>
@@ -2457,7 +2599,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>0</v>
@@ -2466,12 +2608,15 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>2</v>
@@ -2482,10 +2627,13 @@
       <c r="D87" s="1" t="n">
         <v>33.42</v>
       </c>
+      <c r="E87" s="1" t="n">
+        <v>33.42</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>0</v>
@@ -2494,12 +2642,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>0</v>
@@ -2508,12 +2659,15 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>0</v>
@@ -2522,12 +2676,15 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>2</v>
@@ -2538,10 +2695,13 @@
       <c r="D91" s="1" t="n">
         <v>33.42</v>
       </c>
+      <c r="E91" s="1" t="n">
+        <v>33.42</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>0</v>
@@ -2550,12 +2710,15 @@
         <v>0</v>
       </c>
       <c r="D92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>1.16</v>
@@ -2566,10 +2729,13 @@
       <c r="D93" s="1" t="n">
         <v>16.43</v>
       </c>
+      <c r="E93" s="1" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>0</v>
@@ -2578,12 +2744,15 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>0</v>
@@ -2592,12 +2761,15 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>0</v>
@@ -2606,12 +2778,15 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>1.16</v>
@@ -2622,10 +2797,13 @@
       <c r="D97" s="1" t="n">
         <v>16.43</v>
       </c>
+      <c r="E97" s="1" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>0</v>
@@ -2634,12 +2812,15 @@
         <v>0</v>
       </c>
       <c r="D98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>1.5</v>
@@ -2650,10 +2831,13 @@
       <c r="D99" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E99" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>0</v>
@@ -2662,12 +2846,15 @@
         <v>0</v>
       </c>
       <c r="D100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>0</v>
@@ -2676,12 +2863,15 @@
         <v>0</v>
       </c>
       <c r="D101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>0</v>
@@ -2690,12 +2880,15 @@
         <v>0</v>
       </c>
       <c r="D102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>1.5</v>
@@ -2706,10 +2899,13 @@
       <c r="D103" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E103" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>0</v>
@@ -2718,12 +2914,15 @@
         <v>0</v>
       </c>
       <c r="D104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>1.5</v>
@@ -2734,10 +2933,13 @@
       <c r="D105" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E105" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>0</v>
@@ -2746,12 +2948,15 @@
         <v>0</v>
       </c>
       <c r="D106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>0</v>
@@ -2760,12 +2965,15 @@
         <v>0</v>
       </c>
       <c r="D107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>0</v>
@@ -2774,12 +2982,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>1.5</v>
@@ -2790,10 +3001,13 @@
       <c r="D109" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E109" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>0</v>
@@ -2802,12 +3016,15 @@
         <v>0</v>
       </c>
       <c r="D110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>0.2</v>
@@ -2818,10 +3035,13 @@
       <c r="D111" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E111" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>0</v>
@@ -2830,12 +3050,15 @@
         <v>0</v>
       </c>
       <c r="D112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>0</v>
@@ -2844,12 +3067,15 @@
         <v>0</v>
       </c>
       <c r="D113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>0</v>
@@ -2858,12 +3084,15 @@
         <v>0</v>
       </c>
       <c r="D114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>0.2</v>
@@ -2874,10 +3103,13 @@
       <c r="D115" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E115" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>0</v>
@@ -2886,12 +3118,15 @@
         <v>0</v>
       </c>
       <c r="D116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>0.2</v>
@@ -2902,10 +3137,13 @@
       <c r="D117" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E117" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>0</v>
@@ -2914,12 +3152,15 @@
         <v>0</v>
       </c>
       <c r="D118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>0</v>
@@ -2928,12 +3169,15 @@
         <v>0</v>
       </c>
       <c r="D119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>0</v>
@@ -2942,12 +3186,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>0.2</v>
@@ -2958,10 +3205,13 @@
       <c r="D121" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E121" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>0</v>
@@ -2970,12 +3220,15 @@
         <v>0</v>
       </c>
       <c r="D122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>0.2</v>
@@ -2986,10 +3239,13 @@
       <c r="D123" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E123" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>0</v>
@@ -2998,12 +3254,15 @@
         <v>0</v>
       </c>
       <c r="D124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>0</v>
@@ -3012,12 +3271,15 @@
         <v>0</v>
       </c>
       <c r="D125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>0</v>
@@ -3026,12 +3288,15 @@
         <v>0</v>
       </c>
       <c r="D126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>0.2</v>
@@ -3042,10 +3307,13 @@
       <c r="D127" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E127" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>0</v>
@@ -3054,12 +3322,15 @@
         <v>0</v>
       </c>
       <c r="D128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>0.2</v>
@@ -3070,10 +3341,13 @@
       <c r="D129" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>0</v>
@@ -3082,12 +3356,15 @@
         <v>0</v>
       </c>
       <c r="D130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>0</v>
@@ -3096,12 +3373,15 @@
         <v>0</v>
       </c>
       <c r="D131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>0</v>
@@ -3110,12 +3390,15 @@
         <v>0</v>
       </c>
       <c r="D132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>0.2</v>
@@ -3126,10 +3409,13 @@
       <c r="D133" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E133" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>0</v>
@@ -3138,12 +3424,15 @@
         <v>0</v>
       </c>
       <c r="D134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>0.2</v>
@@ -3154,10 +3443,13 @@
       <c r="D135" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E135" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>0</v>
@@ -3166,12 +3458,15 @@
         <v>0</v>
       </c>
       <c r="D136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>0</v>
@@ -3180,12 +3475,15 @@
         <v>0</v>
       </c>
       <c r="D137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>0</v>
@@ -3194,12 +3492,15 @@
         <v>0</v>
       </c>
       <c r="D138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>0.2</v>
@@ -3210,10 +3511,13 @@
       <c r="D139" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E139" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>0</v>
@@ -3222,12 +3526,15 @@
         <v>0</v>
       </c>
       <c r="D140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>0.2</v>
@@ -3238,10 +3545,13 @@
       <c r="D141" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E141" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>0</v>
@@ -3250,12 +3560,15 @@
         <v>0</v>
       </c>
       <c r="D142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>0</v>
@@ -3264,12 +3577,15 @@
         <v>0</v>
       </c>
       <c r="D143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>0</v>
@@ -3278,12 +3594,15 @@
         <v>0</v>
       </c>
       <c r="D144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>0.2</v>
@@ -3294,10 +3613,13 @@
       <c r="D145" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E145" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>0</v>
@@ -3306,12 +3628,15 @@
         <v>0</v>
       </c>
       <c r="D146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>0.2</v>
@@ -3322,10 +3647,13 @@
       <c r="D147" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E147" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>0</v>
@@ -3334,12 +3662,15 @@
         <v>0</v>
       </c>
       <c r="D148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>0</v>
@@ -3348,12 +3679,15 @@
         <v>0</v>
       </c>
       <c r="D149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>0</v>
@@ -3362,12 +3696,15 @@
         <v>0</v>
       </c>
       <c r="D150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>0.2</v>
@@ -3378,10 +3715,13 @@
       <c r="D151" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E151" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>0</v>
@@ -3390,12 +3730,15 @@
         <v>0</v>
       </c>
       <c r="D152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>0.2</v>
@@ -3406,10 +3749,13 @@
       <c r="D153" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E153" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>0</v>
@@ -3418,12 +3764,15 @@
         <v>0</v>
       </c>
       <c r="D154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>0</v>
@@ -3432,12 +3781,15 @@
         <v>0</v>
       </c>
       <c r="D155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>0</v>
@@ -3446,12 +3798,15 @@
         <v>0</v>
       </c>
       <c r="D156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>0.2</v>
@@ -3462,10 +3817,13 @@
       <c r="D157" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E157" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>0</v>
@@ -3474,12 +3832,15 @@
         <v>0</v>
       </c>
       <c r="D158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>0.2</v>
@@ -3490,10 +3851,13 @@
       <c r="D159" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E159" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>0</v>
@@ -3502,12 +3866,15 @@
         <v>0</v>
       </c>
       <c r="D160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>0</v>
@@ -3516,12 +3883,15 @@
         <v>0</v>
       </c>
       <c r="D161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>0</v>
@@ -3530,12 +3900,15 @@
         <v>0</v>
       </c>
       <c r="D162" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>0.2</v>
@@ -3546,10 +3919,13 @@
       <c r="D163" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E163" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>0</v>
@@ -3558,12 +3934,15 @@
         <v>0</v>
       </c>
       <c r="D164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>0.2</v>
@@ -3574,10 +3953,13 @@
       <c r="D165" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E165" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>0</v>
@@ -3586,12 +3968,15 @@
         <v>0</v>
       </c>
       <c r="D166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>0</v>
@@ -3600,12 +3985,15 @@
         <v>0</v>
       </c>
       <c r="D167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>0</v>
@@ -3614,12 +4002,15 @@
         <v>0</v>
       </c>
       <c r="D168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>0.2</v>
@@ -3630,10 +4021,13 @@
       <c r="D169" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E169" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>0</v>
@@ -3642,12 +4036,15 @@
         <v>0</v>
       </c>
       <c r="D170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>0.2</v>
@@ -3658,10 +4055,13 @@
       <c r="D171" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E171" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>0</v>
@@ -3670,12 +4070,15 @@
         <v>0</v>
       </c>
       <c r="D172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>0</v>
@@ -3684,12 +4087,15 @@
         <v>0</v>
       </c>
       <c r="D173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>0</v>
@@ -3698,12 +4104,15 @@
         <v>0</v>
       </c>
       <c r="D174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>0.2</v>
@@ -3714,10 +4123,13 @@
       <c r="D175" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E175" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>0</v>
@@ -3726,12 +4138,15 @@
         <v>0</v>
       </c>
       <c r="D176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>0.2</v>
@@ -3742,10 +4157,13 @@
       <c r="D177" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E177" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>0</v>
@@ -3754,12 +4172,15 @@
         <v>0</v>
       </c>
       <c r="D178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>0</v>
@@ -3768,12 +4189,15 @@
         <v>0</v>
       </c>
       <c r="D179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>0</v>
@@ -3782,12 +4206,15 @@
         <v>0</v>
       </c>
       <c r="D180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>0.2</v>
@@ -3798,10 +4225,13 @@
       <c r="D181" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E181" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>0</v>
@@ -3810,12 +4240,15 @@
         <v>0</v>
       </c>
       <c r="D182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>0.2</v>
@@ -3826,10 +4259,13 @@
       <c r="D183" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E183" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>0</v>
@@ -3838,12 +4274,15 @@
         <v>0</v>
       </c>
       <c r="D184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>0</v>
@@ -3852,12 +4291,15 @@
         <v>0</v>
       </c>
       <c r="D185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>0</v>
@@ -3866,12 +4308,15 @@
         <v>0</v>
       </c>
       <c r="D186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>0.2</v>
@@ -3882,10 +4327,13 @@
       <c r="D187" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E187" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>0</v>
@@ -3894,12 +4342,15 @@
         <v>0</v>
       </c>
       <c r="D188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>0.2</v>
@@ -3910,10 +4361,13 @@
       <c r="D189" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E189" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>0</v>
@@ -3922,12 +4376,15 @@
         <v>0</v>
       </c>
       <c r="D190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>0</v>
@@ -3936,12 +4393,15 @@
         <v>0</v>
       </c>
       <c r="D191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>0</v>
@@ -3950,12 +4410,15 @@
         <v>0</v>
       </c>
       <c r="D192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>0.2</v>
@@ -3966,10 +4429,13 @@
       <c r="D193" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E193" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>0</v>
@@ -3978,12 +4444,15 @@
         <v>0</v>
       </c>
       <c r="D194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>0.2</v>
@@ -3994,10 +4463,13 @@
       <c r="D195" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E195" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>0</v>
@@ -4006,12 +4478,15 @@
         <v>0</v>
       </c>
       <c r="D196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>0</v>
@@ -4020,12 +4495,15 @@
         <v>0</v>
       </c>
       <c r="D197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>0</v>
@@ -4034,12 +4512,15 @@
         <v>0</v>
       </c>
       <c r="D198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>0.2</v>
@@ -4050,10 +4531,13 @@
       <c r="D199" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E199" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>0</v>
@@ -4062,12 +4546,15 @@
         <v>0</v>
       </c>
       <c r="D200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>0.2</v>
@@ -4078,10 +4565,13 @@
       <c r="D201" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E201" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>0</v>
@@ -4090,12 +4580,15 @@
         <v>0</v>
       </c>
       <c r="D202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>0</v>
@@ -4104,12 +4597,15 @@
         <v>0</v>
       </c>
       <c r="D203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>0</v>
@@ -4118,12 +4614,15 @@
         <v>0</v>
       </c>
       <c r="D204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>0.2</v>
@@ -4134,10 +4633,13 @@
       <c r="D205" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E205" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>0</v>
@@ -4146,12 +4648,15 @@
         <v>0</v>
       </c>
       <c r="D206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>0</v>
@@ -4160,12 +4665,15 @@
         <v>0</v>
       </c>
       <c r="D207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>0</v>
@@ -4174,12 +4682,15 @@
         <v>0</v>
       </c>
       <c r="D208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>0</v>
@@ -4188,12 +4699,15 @@
         <v>0</v>
       </c>
       <c r="D209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>0</v>
@@ -4202,12 +4716,15 @@
         <v>0</v>
       </c>
       <c r="D210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>0</v>
@@ -4216,12 +4733,15 @@
         <v>0</v>
       </c>
       <c r="D211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>0</v>
@@ -4230,12 +4750,15 @@
         <v>0</v>
       </c>
       <c r="D212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>0</v>
@@ -4244,12 +4767,15 @@
         <v>0</v>
       </c>
       <c r="D213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>0</v>
@@ -4258,12 +4784,15 @@
         <v>0</v>
       </c>
       <c r="D214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>0</v>
@@ -4272,12 +4801,15 @@
         <v>0</v>
       </c>
       <c r="D215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>0</v>
@@ -4286,12 +4818,15 @@
         <v>0</v>
       </c>
       <c r="D216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>0</v>
@@ -4300,12 +4835,15 @@
         <v>0</v>
       </c>
       <c r="D217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>0</v>
@@ -4314,12 +4852,15 @@
         <v>0</v>
       </c>
       <c r="D218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>58.15</v>
@@ -4330,10 +4871,13 @@
       <c r="D219" s="1" t="n">
         <v>132.7</v>
       </c>
+      <c r="E219" s="1" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>0</v>
@@ -4342,12 +4886,15 @@
         <v>0</v>
       </c>
       <c r="D220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>0</v>
@@ -4356,12 +4903,15 @@
         <v>0</v>
       </c>
       <c r="D221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>0</v>
@@ -4370,12 +4920,15 @@
         <v>0</v>
       </c>
       <c r="D222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>58.15</v>
@@ -4386,10 +4939,13 @@
       <c r="D223" s="1" t="n">
         <v>132.7</v>
       </c>
+      <c r="E223" s="1" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>0</v>
@@ -4398,12 +4954,15 @@
         <v>0</v>
       </c>
       <c r="D224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>59.82</v>
@@ -4414,10 +4973,13 @@
       <c r="D225" s="1" t="n">
         <v>115.67</v>
       </c>
+      <c r="E225" s="1" t="n">
+        <v>115.67</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>0</v>
@@ -4426,12 +4988,15 @@
         <v>0</v>
       </c>
       <c r="D226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>0</v>
@@ -4440,12 +5005,15 @@
         <v>0</v>
       </c>
       <c r="D227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>0</v>
@@ -4454,12 +5022,15 @@
         <v>0</v>
       </c>
       <c r="D228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>59.82</v>
@@ -4470,10 +5041,13 @@
       <c r="D229" s="1" t="n">
         <v>115.67</v>
       </c>
+      <c r="E229" s="1" t="n">
+        <v>115.67</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>0</v>
@@ -4482,26 +5056,32 @@
         <v>0</v>
       </c>
       <c r="D230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>166.3</v>
@@ -4512,10 +5092,13 @@
       <c r="D232" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E232" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>0</v>
@@ -4524,12 +5107,15 @@
         <v>0</v>
       </c>
       <c r="D233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>0</v>
@@ -4538,12 +5124,15 @@
         <v>0</v>
       </c>
       <c r="D234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>480</v>
@@ -4554,10 +5143,13 @@
       <c r="D235" s="1" t="n">
         <v>526</v>
       </c>
+      <c r="E235" s="1" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>646.3</v>
@@ -4568,10 +5160,13 @@
       <c r="D236" s="1" t="n">
         <v>526</v>
       </c>
+      <c r="E236" s="1" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>0</v>
@@ -4580,12 +5175,15 @@
         <v>0</v>
       </c>
       <c r="D237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>210.03</v>
@@ -4596,10 +5194,13 @@
       <c r="D238" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E238" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>0</v>
@@ -4608,12 +5209,15 @@
         <v>0</v>
       </c>
       <c r="D239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>0</v>
@@ -4622,12 +5226,15 @@
         <v>0</v>
       </c>
       <c r="D240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>480</v>
@@ -4638,10 +5245,13 @@
       <c r="D241" s="1" t="n">
         <v>538.7</v>
       </c>
+      <c r="E241" s="1" t="n">
+        <v>538.7</v>
+      </c>
     </row>
     <row r="242" s="6" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B242" s="6" t="n">
         <v>690.03</v>
@@ -4650,6 +5260,9 @@
         <v>188.2</v>
       </c>
       <c r="D242" s="6" t="n">
+        <v>538.7</v>
+      </c>
+      <c r="E242" s="6" t="n">
         <v>538.7</v>
       </c>
       <c r="ALB242" s="1"/>
@@ -4690,7 +5303,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>0</v>
@@ -4699,12 +5312,15 @@
         <v>0</v>
       </c>
       <c r="D243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>36.46</v>
@@ -4715,10 +5331,13 @@
       <c r="D244" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="E244" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>0</v>
@@ -4727,12 +5346,15 @@
         <v>0</v>
       </c>
       <c r="D245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>0</v>
@@ -4741,12 +5363,15 @@
         <v>0</v>
       </c>
       <c r="D246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>0</v>
@@ -4755,12 +5380,15 @@
         <v>0</v>
       </c>
       <c r="D247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>36.46</v>
@@ -4771,10 +5399,13 @@
       <c r="D248" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="E248" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>0</v>
@@ -4783,12 +5414,15 @@
         <v>0</v>
       </c>
       <c r="D249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>17.46</v>
@@ -4799,10 +5433,13 @@
       <c r="D250" s="1" t="n">
         <v>17.93</v>
       </c>
+      <c r="E250" s="1" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>0</v>
@@ -4811,12 +5448,15 @@
         <v>0</v>
       </c>
       <c r="D251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>0</v>
@@ -4825,12 +5465,15 @@
         <v>0</v>
       </c>
       <c r="D252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>0</v>
@@ -4839,12 +5482,15 @@
         <v>0</v>
       </c>
       <c r="D253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>17.46</v>
@@ -4855,10 +5501,13 @@
       <c r="D254" s="1" t="n">
         <v>17.93</v>
       </c>
+      <c r="E254" s="1" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>0</v>
@@ -4867,12 +5516,15 @@
         <v>0</v>
       </c>
       <c r="D255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>1.46</v>
@@ -4883,10 +5535,13 @@
       <c r="D256" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E256" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>0</v>
@@ -4895,12 +5550,15 @@
         <v>0</v>
       </c>
       <c r="D257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>0</v>
@@ -4909,12 +5567,15 @@
         <v>0</v>
       </c>
       <c r="D258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>0</v>
@@ -4923,12 +5584,15 @@
         <v>0</v>
       </c>
       <c r="D259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>1.46</v>
@@ -4939,10 +5603,13 @@
       <c r="D260" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E260" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>0</v>
@@ -4951,12 +5618,15 @@
         <v>0</v>
       </c>
       <c r="D261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>19.7</v>
@@ -4967,10 +5637,13 @@
       <c r="D262" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E262" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>0</v>
@@ -4979,12 +5652,15 @@
         <v>0</v>
       </c>
       <c r="D263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>0</v>
@@ -4993,12 +5669,15 @@
         <v>0</v>
       </c>
       <c r="D264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>0</v>
@@ -5007,12 +5686,15 @@
         <v>0</v>
       </c>
       <c r="D265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>19.7</v>
@@ -5023,10 +5705,13 @@
       <c r="D266" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E266" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>0</v>
@@ -5035,12 +5720,15 @@
         <v>0</v>
       </c>
       <c r="D267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>0.4</v>
@@ -5051,10 +5739,13 @@
       <c r="D268" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E268" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>0</v>
@@ -5063,12 +5754,15 @@
         <v>0</v>
       </c>
       <c r="D269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>0</v>
@@ -5077,12 +5771,15 @@
         <v>0</v>
       </c>
       <c r="D270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>0</v>
@@ -5091,12 +5788,15 @@
         <v>0</v>
       </c>
       <c r="D271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>0.4</v>
@@ -5107,10 +5807,13 @@
       <c r="D272" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E272" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>0</v>
@@ -5119,12 +5822,15 @@
         <v>0</v>
       </c>
       <c r="D273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>0.4</v>
@@ -5135,10 +5841,13 @@
       <c r="D274" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E274" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>0</v>
@@ -5147,12 +5856,15 @@
         <v>0</v>
       </c>
       <c r="D275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>0</v>
@@ -5161,12 +5873,15 @@
         <v>0</v>
       </c>
       <c r="D276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>0</v>
@@ -5175,12 +5890,15 @@
         <v>0</v>
       </c>
       <c r="D277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>0.4</v>
@@ -5191,10 +5909,13 @@
       <c r="D278" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E278" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>0</v>
@@ -5203,12 +5924,15 @@
         <v>0</v>
       </c>
       <c r="D279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>0.4</v>
@@ -5219,10 +5943,13 @@
       <c r="D280" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E280" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>0</v>
@@ -5231,12 +5958,15 @@
         <v>0</v>
       </c>
       <c r="D281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>0</v>
@@ -5245,12 +5975,15 @@
         <v>0</v>
       </c>
       <c r="D282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>0</v>
@@ -5259,12 +5992,15 @@
         <v>0</v>
       </c>
       <c r="D283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>0.4</v>
@@ -5275,10 +6011,13 @@
       <c r="D284" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E284" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>0</v>
@@ -5287,12 +6026,15 @@
         <v>0</v>
       </c>
       <c r="D285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>0.4</v>
@@ -5303,10 +6045,13 @@
       <c r="D286" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E286" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>0</v>
@@ -5315,12 +6060,15 @@
         <v>0</v>
       </c>
       <c r="D287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>0</v>
@@ -5329,12 +6077,15 @@
         <v>0</v>
       </c>
       <c r="D288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>0</v>
@@ -5343,12 +6094,15 @@
         <v>0</v>
       </c>
       <c r="D289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>0.4</v>
@@ -5359,10 +6113,13 @@
       <c r="D290" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E290" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>0</v>
@@ -5371,12 +6128,15 @@
         <v>0</v>
       </c>
       <c r="D291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>0.48</v>
@@ -5387,10 +6147,13 @@
       <c r="D292" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E292" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>0</v>
@@ -5399,12 +6162,15 @@
         <v>0</v>
       </c>
       <c r="D293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>0</v>
@@ -5413,12 +6179,15 @@
         <v>0</v>
       </c>
       <c r="D294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>0</v>
@@ -5427,12 +6196,15 @@
         <v>0</v>
       </c>
       <c r="D295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>0.48</v>
@@ -5443,10 +6215,13 @@
       <c r="D296" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E296" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>0</v>
@@ -5455,12 +6230,15 @@
         <v>0</v>
       </c>
       <c r="D297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>0.48</v>
@@ -5471,10 +6249,13 @@
       <c r="D298" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E298" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>0</v>
@@ -5483,12 +6264,15 @@
         <v>0</v>
       </c>
       <c r="D299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>0</v>
@@ -5497,12 +6281,15 @@
         <v>0</v>
       </c>
       <c r="D300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>0</v>
@@ -5511,12 +6298,15 @@
         <v>0</v>
       </c>
       <c r="D301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>0.48</v>
@@ -5527,10 +6317,13 @@
       <c r="D302" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E302" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>0</v>
@@ -5539,12 +6332,15 @@
         <v>0</v>
       </c>
       <c r="D303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>0.4</v>
@@ -5555,10 +6351,13 @@
       <c r="D304" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E304" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>0</v>
@@ -5567,12 +6366,15 @@
         <v>0</v>
       </c>
       <c r="D305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>0</v>
@@ -5581,12 +6383,15 @@
         <v>0</v>
       </c>
       <c r="D306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>0</v>
@@ -5595,12 +6400,15 @@
         <v>0</v>
       </c>
       <c r="D307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>0.4</v>
@@ -5611,10 +6419,13 @@
       <c r="D308" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E308" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>0</v>
@@ -5623,12 +6434,15 @@
         <v>0</v>
       </c>
       <c r="D309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>0.4</v>
@@ -5639,10 +6453,13 @@
       <c r="D310" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E310" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>0</v>
@@ -5651,12 +6468,15 @@
         <v>0</v>
       </c>
       <c r="D311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>0</v>
@@ -5665,12 +6485,15 @@
         <v>0</v>
       </c>
       <c r="D312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>0</v>
@@ -5679,12 +6502,15 @@
         <v>0</v>
       </c>
       <c r="D313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>0.4</v>
@@ -5695,10 +6521,13 @@
       <c r="D314" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E314" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>0</v>
@@ -5707,12 +6536,15 @@
         <v>0</v>
       </c>
       <c r="D315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>0.4</v>
@@ -5723,10 +6555,13 @@
       <c r="D316" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E316" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>0</v>
@@ -5735,12 +6570,15 @@
         <v>0</v>
       </c>
       <c r="D317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>0</v>
@@ -5749,12 +6587,15 @@
         <v>0</v>
       </c>
       <c r="D318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>0</v>
@@ -5763,12 +6604,15 @@
         <v>0</v>
       </c>
       <c r="D319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>0.4</v>
@@ -5779,10 +6623,13 @@
       <c r="D320" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E320" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>0</v>
@@ -5791,12 +6638,15 @@
         <v>0</v>
       </c>
       <c r="D321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>0.4</v>
@@ -5807,10 +6657,13 @@
       <c r="D322" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E322" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>0</v>
@@ -5819,12 +6672,15 @@
         <v>0</v>
       </c>
       <c r="D323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>0</v>
@@ -5833,12 +6689,15 @@
         <v>0</v>
       </c>
       <c r="D324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>0</v>
@@ -5847,12 +6706,15 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>0.4</v>
@@ -5863,10 +6725,13 @@
       <c r="D326" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E326" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>0</v>
@@ -5875,12 +6740,15 @@
         <v>0</v>
       </c>
       <c r="D327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>0.4</v>
@@ -5891,10 +6759,13 @@
       <c r="D328" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E328" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>0</v>
@@ -5903,12 +6774,15 @@
         <v>0</v>
       </c>
       <c r="D329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>0</v>
@@ -5917,12 +6791,15 @@
         <v>0</v>
       </c>
       <c r="D330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>0</v>
@@ -5931,12 +6808,15 @@
         <v>0</v>
       </c>
       <c r="D331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>0.4</v>
@@ -5947,10 +6827,13 @@
       <c r="D332" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E332" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>0</v>
@@ -5959,12 +6842,15 @@
         <v>0</v>
       </c>
       <c r="D333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>0.4</v>
@@ -5975,10 +6861,13 @@
       <c r="D334" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E334" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>0</v>
@@ -5987,12 +6876,15 @@
         <v>0</v>
       </c>
       <c r="D335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>0</v>
@@ -6001,12 +6893,15 @@
         <v>0</v>
       </c>
       <c r="D336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>0</v>
@@ -6015,12 +6910,15 @@
         <v>0</v>
       </c>
       <c r="D337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>0.4</v>
@@ -6031,10 +6929,13 @@
       <c r="D338" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E338" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>0</v>
@@ -6043,12 +6944,15 @@
         <v>0</v>
       </c>
       <c r="D339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>0.4</v>
@@ -6059,10 +6963,13 @@
       <c r="D340" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E340" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>0</v>
@@ -6071,12 +6978,15 @@
         <v>0</v>
       </c>
       <c r="D341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>0</v>
@@ -6085,12 +6995,15 @@
         <v>0</v>
       </c>
       <c r="D342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>0</v>
@@ -6099,12 +7012,15 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E343" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>0.4</v>
@@ -6115,10 +7031,13 @@
       <c r="D344" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E344" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>0</v>
@@ -6127,12 +7046,15 @@
         <v>0</v>
       </c>
       <c r="D345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>0.4</v>
@@ -6143,10 +7065,13 @@
       <c r="D346" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E346" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>0</v>
@@ -6155,12 +7080,15 @@
         <v>0</v>
       </c>
       <c r="D347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>0</v>
@@ -6169,12 +7097,15 @@
         <v>0</v>
       </c>
       <c r="D348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>0</v>
@@ -6183,12 +7114,15 @@
         <v>0</v>
       </c>
       <c r="D349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>0.4</v>
@@ -6199,10 +7133,13 @@
       <c r="D350" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E350" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>0</v>
@@ -6211,12 +7148,15 @@
         <v>0</v>
       </c>
       <c r="D351" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>0.48</v>
@@ -6227,10 +7167,13 @@
       <c r="D352" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E352" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>0</v>
@@ -6239,12 +7182,15 @@
         <v>0</v>
       </c>
       <c r="D353" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E353" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>0</v>
@@ -6253,12 +7199,15 @@
         <v>0</v>
       </c>
       <c r="D354" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>0</v>
@@ -6267,12 +7216,15 @@
         <v>0</v>
       </c>
       <c r="D355" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>0.48</v>
@@ -6283,10 +7235,13 @@
       <c r="D356" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E356" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>0</v>
@@ -6295,12 +7250,15 @@
         <v>0</v>
       </c>
       <c r="D357" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>0.48</v>
@@ -6311,10 +7269,13 @@
       <c r="D358" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E358" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>0</v>
@@ -6323,12 +7284,15 @@
         <v>0</v>
       </c>
       <c r="D359" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>0</v>
@@ -6337,12 +7301,15 @@
         <v>0</v>
       </c>
       <c r="D360" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E360" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>0</v>
@@ -6351,12 +7318,15 @@
         <v>0</v>
       </c>
       <c r="D361" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>0.48</v>
@@ -6367,10 +7337,13 @@
       <c r="D362" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E362" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>0</v>
@@ -6379,12 +7352,15 @@
         <v>0</v>
       </c>
       <c r="D363" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>0</v>
@@ -6393,12 +7369,15 @@
         <v>0</v>
       </c>
       <c r="D364" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>0</v>
@@ -6407,12 +7386,15 @@
         <v>0</v>
       </c>
       <c r="D365" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E365" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>0</v>
@@ -6421,12 +7403,15 @@
         <v>0</v>
       </c>
       <c r="D366" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>5700</v>
@@ -6437,10 +7422,13 @@
       <c r="D367" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E367" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>5700</v>
@@ -6451,10 +7439,13 @@
       <c r="D368" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E368" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>0</v>
@@ -6463,12 +7454,15 @@
         <v>0</v>
       </c>
       <c r="D369" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>0</v>
@@ -6477,12 +7471,15 @@
         <v>0</v>
       </c>
       <c r="D370" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>0</v>
@@ -6491,12 +7488,15 @@
         <v>0</v>
       </c>
       <c r="D371" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>0</v>
@@ -6505,12 +7505,15 @@
         <v>0</v>
       </c>
       <c r="D372" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>5700</v>
@@ -6521,10 +7524,13 @@
       <c r="D373" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E373" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>5700</v>
@@ -6535,10 +7541,13 @@
       <c r="D374" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E374" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>0</v>
@@ -6547,12 +7556,15 @@
         <v>0</v>
       </c>
       <c r="D375" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>207.58</v>
@@ -6563,10 +7575,13 @@
       <c r="D376" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="E376" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>0</v>
@@ -6575,12 +7590,15 @@
         <v>0</v>
       </c>
       <c r="D377" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>0</v>
@@ -6589,12 +7607,15 @@
         <v>0</v>
       </c>
       <c r="D378" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>6180</v>
@@ -6605,10 +7626,13 @@
       <c r="D379" s="1" t="n">
         <v>526</v>
       </c>
+      <c r="E379" s="1" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>6387.58</v>
@@ -6619,10 +7643,13 @@
       <c r="D380" s="1" t="n">
         <v>542</v>
       </c>
+      <c r="E380" s="1" t="n">
+        <v>542</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>0</v>
@@ -6631,12 +7658,15 @@
         <v>0</v>
       </c>
       <c r="D381" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>250.55</v>
@@ -6647,10 +7677,13 @@
       <c r="D382" s="1" t="n">
         <v>17.93</v>
       </c>
+      <c r="E382" s="1" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>0</v>
@@ -6659,12 +7692,15 @@
         <v>0</v>
       </c>
       <c r="D383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>0</v>
@@ -6673,12 +7709,15 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>6180</v>
@@ -6689,10 +7728,13 @@
       <c r="D385" s="1" t="n">
         <v>538.7</v>
       </c>
+      <c r="E385" s="1" t="n">
+        <v>538.7</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>6430.55</v>
@@ -6703,10 +7745,13 @@
       <c r="D386" s="1" t="n">
         <v>556.63</v>
       </c>
+      <c r="E386" s="1" t="n">
+        <v>556.63</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>0</v>
@@ -6715,21 +7760,27 @@
         <v>0</v>
       </c>
       <c r="D387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="425">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -1503,7 +1503,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1602,7 +1602,9 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -835,7 +835,7 @@
     <t xml:space="preserve">Pre 19-20 BL Income both Revenue and Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre 19-20 CDEL Forecast Total</t>
+    <t xml:space="preserve">Pre-profile CDEL</t>
   </si>
   <si>
     <t xml:space="preserve">Pre 19-20 CDEL Forecast recurring new costs</t>
@@ -844,10 +844,10 @@
     <t xml:space="preserve">Pre 19-20 CDEL Forecast recurring old costs</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre 19-20 Forecast Non-Gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-profile CDEL</t>
+    <t xml:space="preserve">Pre-profile non-gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-profile CDEL total</t>
   </si>
   <si>
     <t xml:space="preserve">Pre 19-20 Actual Income both Revenue and Capital</t>
@@ -1501,9 +1501,9 @@
   <dimension ref="A1:AMJ388"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F332" activeCellId="0" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5184,7 +5184,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B238" s="1" t="n">
@@ -5235,7 +5235,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B241" s="1" t="n">
@@ -6702,7 +6702,7 @@
         <v>358</v>
       </c>
       <c r="B325" s="1" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>370</v>
       </c>
       <c r="B337" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C337" s="1" t="n">
         <v>0</v>

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -7364,7 +7364,7 @@
     <row r="370" ht="15" customHeight="1" s="8">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>Unprofiled CDEL Forecast Total</t>
+          <t>Unprofiled CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B370" s="7" t="n">
@@ -7592,7 +7592,7 @@
     <row r="382" ht="15" customHeight="1" s="8">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>Total CDEL Forecast Total</t>
+          <t>Total CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B382" s="7" t="n">

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -5084,7 +5084,7 @@
     <row r="250" ht="15" customHeight="1" s="8">
       <c r="A250" s="7" t="inlineStr">
         <is>
-          <t>19-20 CDEL Forecast Total</t>
+          <t>19-20 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B250" s="7" t="n">
@@ -5312,7 +5312,7 @@
     <row r="262" ht="15" customHeight="1" s="8">
       <c r="A262" s="7" t="inlineStr">
         <is>
-          <t>20-21 CDEL Forecast Total</t>
+          <t>20-21 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B262" s="7" t="n">
@@ -5540,7 +5540,7 @@
     <row r="274" ht="15" customHeight="1" s="8">
       <c r="A274" s="7" t="inlineStr">
         <is>
-          <t>21-22 CDEL Forecast Total</t>
+          <t>21-22 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B274" s="7" t="n">
@@ -5768,7 +5768,7 @@
     <row r="286" ht="15" customHeight="1" s="8">
       <c r="A286" s="7" t="inlineStr">
         <is>
-          <t>22-23 CDEL Forecast Total</t>
+          <t>22-23 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B286" s="7" t="n">
@@ -5996,7 +5996,7 @@
     <row r="298" ht="15" customHeight="1" s="8">
       <c r="A298" s="7" t="inlineStr">
         <is>
-          <t>23-24 CDEL Forecast Total</t>
+          <t>23-24 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B298" s="7" t="n">
@@ -6224,7 +6224,7 @@
     <row r="310" ht="15" customHeight="1" s="8">
       <c r="A310" s="7" t="inlineStr">
         <is>
-          <t>24-25 CDEL Forecast Total</t>
+          <t>24-25 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B310" s="7" t="n">
@@ -6452,7 +6452,7 @@
     <row r="322" ht="15" customHeight="1" s="8">
       <c r="A322" s="7" t="inlineStr">
         <is>
-          <t>25-26 CDEL Forecast Total</t>
+          <t>25-26 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B322" s="7" t="n">
@@ -6680,7 +6680,7 @@
     <row r="334" ht="15" customHeight="1" s="8">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>26-27 CDEL Forecast Total</t>
+          <t>26-27 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B334" s="7" t="n">
@@ -6908,7 +6908,7 @@
     <row r="346" ht="15" customHeight="1" s="8">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>27-28 CDEL Forecast Total</t>
+          <t>27-28 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B346" s="7" t="n">
@@ -7136,7 +7136,7 @@
     <row r="358" ht="15" customHeight="1" s="8">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>28-29 CDEL Forecast Total</t>
+          <t>28-29 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B358" s="7" t="n">

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -7737,15 +7737,9 @@
           <t>16-17 Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B389" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0</v>
-      </c>
-      <c r="D389" t="n">
-        <v>11.36</v>
-      </c>
+      <c r="B389" s="9" t="n"/>
+      <c r="C389" s="9" t="n"/>
+      <c r="D389" s="9" t="n"/>
     </row>
     <row r="390" ht="13.8" customHeight="1" s="10">
       <c r="A390" s="17" t="inlineStr">
@@ -7753,13 +7747,13 @@
           <t>16-17 RDEL Actual recurring new costs</t>
         </is>
       </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0</v>
-      </c>
-      <c r="D390" t="n">
+      <c r="B390" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7769,13 +7763,13 @@
           <t>16-17 RDEL Actual recurring old costs</t>
         </is>
       </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0</v>
-      </c>
-      <c r="D391" t="n">
+      <c r="B391" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7785,16 +7779,16 @@
           <t>16-17 RDEL Actual Total</t>
         </is>
       </c>
-      <c r="B392" t="n">
+      <c r="B392" s="9" t="n">
         <v>4.09</v>
       </c>
-      <c r="C392" t="n">
-        <v>0</v>
-      </c>
-      <c r="D392" t="n">
+      <c r="C392" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" s="9" t="n">
         <v>11.36</v>
       </c>
-      <c r="E392" t="n">
+      <c r="E392" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7825,16 +7819,16 @@
           <t>16-17 CDEL Actual Total</t>
         </is>
       </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="n">
-        <v>0</v>
-      </c>
-      <c r="E396" t="n">
+      <c r="B396" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7851,13 +7845,13 @@
           <t>17-18 RDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B398" t="n">
+      <c r="B398" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="n">
+      <c r="C398" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" s="9" t="n">
         <v>46.72</v>
       </c>
     </row>
@@ -7867,10 +7861,10 @@
           <t>17-18 RDEL Forecast recurring new costs</t>
         </is>
       </c>
-      <c r="C399" t="n">
-        <v>0</v>
-      </c>
-      <c r="D399" t="n">
+      <c r="C399" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7880,13 +7874,13 @@
           <t>17-18 RDEL Forecast recurring old costs</t>
         </is>
       </c>
-      <c r="B400" t="n">
-        <v>0</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0</v>
-      </c>
-      <c r="D400" t="n">
+      <c r="B400" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C400" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,16 +7890,16 @@
           <t>17-18 RDEL Forecast Total</t>
         </is>
       </c>
-      <c r="B401" t="n">
+      <c r="B401" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="n">
+      <c r="C401" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" s="9" t="n">
         <v>46.72</v>
       </c>
-      <c r="E401" t="n">
+      <c r="E401" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7915,16 +7909,16 @@
           <t>17-18 CDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B402" t="n">
+      <c r="B402" s="9" t="n">
         <v>174</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402" s="9" t="n">
         <v>49.9</v>
       </c>
-      <c r="D402" t="n">
-        <v>0</v>
-      </c>
-      <c r="E402" t="n">
+      <c r="D402" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" s="9" t="n">
         <v>379.5</v>
       </c>
     </row>
@@ -7934,13 +7928,13 @@
           <t>17-18 CDEL Forecast recurring new costs</t>
         </is>
       </c>
-      <c r="C403" t="n">
-        <v>0</v>
-      </c>
-      <c r="D403" t="n">
-        <v>0</v>
-      </c>
-      <c r="E403" t="n">
+      <c r="C403" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E403" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7950,16 +7944,16 @@
           <t>17-18 CDEL Forecast recurring old costs</t>
         </is>
       </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-      <c r="C404" t="n">
-        <v>0</v>
-      </c>
-      <c r="D404" t="n">
-        <v>0</v>
-      </c>
-      <c r="E404" t="n">
+      <c r="B404" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E404" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7969,16 +7963,16 @@
           <t>17-18 CDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B405" t="n">
+      <c r="B405" s="9" t="n">
         <v>174</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405" s="9" t="n">
         <v>49.9</v>
       </c>
-      <c r="D405" t="n">
-        <v>0</v>
-      </c>
-      <c r="E405" t="n">
+      <c r="D405" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" s="9" t="n">
         <v>379.5</v>
       </c>
     </row>
@@ -7988,10 +7982,10 @@
           <t>17-18 Forecast Non-Gov</t>
         </is>
       </c>
-      <c r="B406" t="n">
+      <c r="B406" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406" s="9" t="n">
         <v>174.7</v>
       </c>
     </row>
@@ -8001,13 +7995,13 @@
           <t>18-19 RDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B407" t="n">
+      <c r="B407" s="9" t="n">
         <v>37.88</v>
       </c>
-      <c r="C407" t="n">
-        <v>0</v>
-      </c>
-      <c r="D407" t="n">
+      <c r="C407" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" s="9" t="n">
         <v>36.22</v>
       </c>
     </row>
@@ -8017,10 +8011,10 @@
           <t>18-19 RDEL Forecast recurring new costs</t>
         </is>
       </c>
-      <c r="C408" t="n">
-        <v>0</v>
-      </c>
-      <c r="D408" t="n">
+      <c r="C408" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8030,13 +8024,13 @@
           <t>18-19 RDEL Forecast recurring old costs</t>
         </is>
       </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-      <c r="C409" t="n">
-        <v>0</v>
-      </c>
-      <c r="D409" t="n">
+      <c r="B409" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C409" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8046,16 +8040,16 @@
           <t>18-19 RDEL Forecast Non Gov costs</t>
         </is>
       </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-      <c r="C410" t="n">
-        <v>0</v>
-      </c>
-      <c r="D410" t="n">
-        <v>0</v>
-      </c>
-      <c r="E410" t="n">
+      <c r="B410" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C410" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8065,16 +8059,16 @@
           <t>18-19 RDEL Forecast Total</t>
         </is>
       </c>
-      <c r="B411" t="n">
+      <c r="B411" s="9" t="n">
         <v>37.88</v>
       </c>
-      <c r="C411" t="n">
-        <v>0</v>
-      </c>
-      <c r="D411" t="n">
+      <c r="C411" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D411" s="9" t="n">
         <v>36.22</v>
       </c>
-      <c r="E411" t="n">
+      <c r="E411" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8084,16 +8078,16 @@
           <t>18-19 RDEL Forecast Income</t>
         </is>
       </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-      <c r="C412" t="n">
-        <v>0</v>
-      </c>
-      <c r="D412" t="n">
-        <v>0</v>
-      </c>
-      <c r="E412" t="n">
+      <c r="B412" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C412" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D412" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8103,16 +8097,16 @@
           <t>18-19 CDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B413" t="n">
+      <c r="B413" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413" s="9" t="n">
         <v>61.9</v>
       </c>
-      <c r="D413" t="n">
-        <v>0</v>
-      </c>
-      <c r="E413" t="n">
+      <c r="D413" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" s="9" t="n">
         <v>470</v>
       </c>
     </row>
@@ -8122,13 +8116,13 @@
           <t>18-19 CDEL Forecast recurring new costs</t>
         </is>
       </c>
-      <c r="C414" t="n">
-        <v>0</v>
-      </c>
-      <c r="D414" t="n">
-        <v>0</v>
-      </c>
-      <c r="E414" t="n">
+      <c r="C414" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8138,16 +8132,16 @@
           <t>18-19 CDEL Forecast recurring old costs</t>
         </is>
       </c>
-      <c r="B415" t="n">
-        <v>0</v>
-      </c>
-      <c r="C415" t="n">
-        <v>0</v>
-      </c>
-      <c r="D415" t="n">
-        <v>0</v>
-      </c>
-      <c r="E415" t="n">
+      <c r="B415" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C415" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8157,10 +8151,10 @@
           <t>18-19 Forecast Non-Gov</t>
         </is>
       </c>
-      <c r="B416" t="n">
+      <c r="B416" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416" s="9" t="n">
         <v>71.09999999999999</v>
       </c>
     </row>
@@ -8170,16 +8164,16 @@
           <t>18-19 CDEL Forecast Total WLC</t>
         </is>
       </c>
-      <c r="B417" t="n">
+      <c r="B417" s="9" t="n">
         <v>110.25</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417" s="9" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417" s="9" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E417" t="n">
+      <c r="E417" s="9" t="n">
         <v>447.8</v>
       </c>
     </row>
@@ -8189,7 +8183,7 @@
           <t>18-19 Forecast - Income both Revenue and Capital</t>
         </is>
       </c>
-      <c r="D418" t="n">
+      <c r="D418" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8199,13 +8193,13 @@
           <t>19-20 RDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B419" t="n">
+      <c r="B419" s="9" t="n">
         <v>34.49</v>
       </c>
-      <c r="C419" t="n">
-        <v>0</v>
-      </c>
-      <c r="D419" t="n">
+      <c r="C419" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D419" s="9" t="n">
         <v>33.42</v>
       </c>
     </row>
@@ -8215,10 +8209,10 @@
           <t>19-20 RDEL Forecast recurring new costs</t>
         </is>
       </c>
-      <c r="C420" t="n">
-        <v>0</v>
-      </c>
-      <c r="D420" t="n">
+      <c r="C420" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8228,13 +8222,13 @@
           <t>19-20 RDEL Forecast recurring old costs</t>
         </is>
       </c>
-      <c r="B421" t="n">
-        <v>0</v>
-      </c>
-      <c r="C421" t="n">
-        <v>0</v>
-      </c>
-      <c r="D421" t="n">
+      <c r="B421" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C421" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D421" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8244,16 +8238,16 @@
           <t>19-20 RDEL Forecast Non Gov costs</t>
         </is>
       </c>
-      <c r="B422" t="n">
-        <v>0</v>
-      </c>
-      <c r="C422" t="n">
-        <v>0</v>
-      </c>
-      <c r="D422" t="n">
-        <v>0</v>
-      </c>
-      <c r="E422" t="n">
+      <c r="B422" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C422" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8263,16 +8257,16 @@
           <t>19-20 RDEL Forecast Total</t>
         </is>
       </c>
-      <c r="B423" t="n">
+      <c r="B423" s="9" t="n">
         <v>34.49</v>
       </c>
-      <c r="C423" t="n">
-        <v>0</v>
-      </c>
-      <c r="D423" t="n">
+      <c r="C423" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D423" s="9" t="n">
         <v>33.42</v>
       </c>
-      <c r="E423" t="n">
+      <c r="E423" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8282,16 +8276,16 @@
           <t>19-20 RDEL Forecast Income</t>
         </is>
       </c>
-      <c r="B424" t="n">
-        <v>0</v>
-      </c>
-      <c r="C424" t="n">
-        <v>0</v>
-      </c>
-      <c r="D424" t="n">
-        <v>0</v>
-      </c>
-      <c r="E424" t="n">
+      <c r="B424" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C424" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D424" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8301,16 +8295,16 @@
           <t>19-20 CDEL Forecast one off new costs</t>
         </is>
       </c>
-      <c r="B425" t="n">
-        <v>0</v>
-      </c>
-      <c r="C425" t="n">
+      <c r="B425" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C425" s="9" t="n">
         <v>64.3</v>
       </c>
-      <c r="D425" t="n">
-        <v>0</v>
-      </c>
-      <c r="E425" t="n">
+      <c r="D425" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" s="9" t="n">
         <v>243.9</v>
       </c>
     </row>
@@ -8320,16 +8314,16 @@
           <t>19-20 CDEL Forecast recurring new costs</t>
         </is>
       </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
-      <c r="C426" t="n">
-        <v>0</v>
-      </c>
-      <c r="D426" t="n">
-        <v>0</v>
-      </c>
-      <c r="E426" t="n">
+      <c r="B426" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C426" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D426" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E426" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8339,16 +8333,16 @@
           <t>19-20 CDEL Forecast recurring old costs</t>
         </is>
       </c>
-      <c r="B427" t="n">
-        <v>0</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="n">
-        <v>0</v>
-      </c>
-      <c r="E427" t="n">
+      <c r="B427" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8358,10 +8352,10 @@
           <t>19-20 Forecast Non-Gov</t>
         </is>
       </c>
-      <c r="C428" t="n">
-        <v>0</v>
-      </c>
-      <c r="D428" t="n">
+      <c r="C428" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D428" s="9" t="n">
         <v>30.7</v>
       </c>
     </row>
@@ -8371,16 +8365,16 @@
           <t>19-20 CDEL Forecast Total WLC</t>
         </is>
       </c>
-      <c r="B429" t="n">
-        <v>0</v>
-      </c>
-      <c r="C429" t="n">
+      <c r="B429" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C429" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429" s="9" t="n">
         <v>11.7</v>
       </c>
-      <c r="E429" t="n">
+      <c r="E429" s="9" t="n">
         <v>320.9</v>
       </c>
     </row>
@@ -8390,7 +8384,7 @@
           <t>19-20 Forecast - Income both Revenue and Capital</t>
         </is>
       </c>
-      <c r="D430" t="n">
+      <c r="D430" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="594">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -1796,6 +1796,12 @@
   </si>
   <si>
     <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRO Finance confidence</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1900,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1928,6 +1934,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2008,12 +2018,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ563"/>
+  <dimension ref="A1:AMJ565"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E564" activeCellId="0" sqref="E564"/>
+      <selection pane="bottomLeft" activeCell="E575" activeCellId="0" sqref="E575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11363,11 +11373,21 @@
       <c r="C563" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D563" s="0" t="s">
+      <c r="D563" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="E563" s="0" t="s">
+      <c r="E563" s="9" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="9" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/cost_test_master_4_2019.xlsx
+++ b/tests/resources/cost_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="595">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -1802,6 +1802,9 @@
   </si>
   <si>
     <t xml:space="preserve">SRO Finance confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -2018,12 +2021,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ565"/>
+  <dimension ref="A1:AMJ566"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E575" activeCellId="0" sqref="E575"/>
+      <selection pane="bottomLeft" activeCell="A566" activeCellId="0" sqref="A566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11390,6 +11393,11 @@
         <v>593</v>
       </c>
     </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
